--- a/InputData/land/CSpULApYbP/CO2 Sequestered per Unit Land Area per Year by Pol.xlsx
+++ b/InputData/land/CSpULApYbP/CO2 Sequestered per Unit Land Area per Year by Pol.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emily.Mangan\Dropbox\India EPS\InputData UPDATE FOR INDIA\land\CSpULApYbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\land\CSpULApYbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0935C875-7137-4B61-823B-357E18305ECE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="315" windowWidth="18825" windowHeight="6555"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26,12 +27,20 @@
     <definedName name="C_to_CO2">'[2]Conversion Factors'!$A$4</definedName>
     <definedName name="grams_per_ton">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>CSpULApYbP CO2 Sequestered per Unit Land Area per Year by Policy</t>
   </si>
@@ -102,9 +111,6 @@
     <t>for the forest to regenerate to the point where another logging operation</t>
   </si>
   <si>
-    <t>County-Level Sequestration Estimates</t>
-  </si>
-  <si>
     <t>This variable is not used for the improved forest management policy.</t>
   </si>
   <si>
@@ -129,9 +135,6 @@
     <t>Table 5: Activity data and pool wise carbon stock used for FRL</t>
   </si>
   <si>
-    <t>http://redd.unfccc.int/files/2018_frel_submission_india.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carbon Stored in Area of Forest </t>
   </si>
   <si>
@@ -144,27 +147,15 @@
     <t>Mt CO2/ acre</t>
   </si>
   <si>
-    <t>UNFCCC</t>
-  </si>
-  <si>
-    <t>India’s proposed Submission on Forest Reference Levels for REDD+</t>
-  </si>
-  <si>
     <t>Land Eligible for Conversion to Forests</t>
   </si>
   <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>CO2 Sequested per acre</t>
-  </si>
-  <si>
     <t>g CO2 / acre</t>
   </si>
   <si>
-    <t>Mt CO2/sq km</t>
-  </si>
-  <si>
     <t>Felling Cycle Length</t>
   </si>
   <si>
@@ -231,25 +222,97 @@
     <t>the sequestration rate is the same as the one for that policy divided by:</t>
   </si>
   <si>
-    <t>Forest Area in 2008</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Carbon in Indian Forest per Unit Area</t>
-  </si>
-  <si>
     <t>Total Carbon in Indian Forests</t>
   </si>
   <si>
-    <t>Mt C/sq km</t>
+    <t>Peatland Restoration</t>
+  </si>
+  <si>
+    <t>Not applicable to India</t>
+  </si>
+  <si>
+    <t>India State of Forest Report - 2017</t>
+  </si>
+  <si>
+    <t>Forest Survey of India, MoEFCC</t>
+  </si>
+  <si>
+    <t>Chap 8 - Carbon Stock in India's Forests</t>
+  </si>
+  <si>
+    <t>http://fsi.nic.in/isfr2017/isfr-carbon-stock-in-india-forest-2017.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 8.4: State wise Carbon Stock in different carbon pools in 000' tonnes </t>
+  </si>
+  <si>
+    <t>with per ha. Stock in parenthesis</t>
+  </si>
+  <si>
+    <t>Forest Area in 2017</t>
+  </si>
+  <si>
+    <t>Mt C</t>
+  </si>
+  <si>
+    <t>Total Carbon stock in Indian Forests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total CO2 in Indian Forest </t>
+  </si>
+  <si>
+    <t>CO2 Sequested per acre per year</t>
+  </si>
+  <si>
+    <t>Bamboo</t>
+  </si>
+  <si>
+    <t>http://frienvis.nic.in/WriteReadData/UserFiles/file/Publication/Books/2015-Bamboos-in-India.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teak </t>
+  </si>
+  <si>
+    <t>http://www.fao.org/3/AC773E/ac773e07.htm</t>
+  </si>
+  <si>
+    <t>Eucalyptus</t>
+  </si>
+  <si>
+    <t>http://www.fao.org/3/ac777e/ac777e08.htm</t>
+  </si>
+  <si>
+    <t>Deodar</t>
+  </si>
+  <si>
+    <t>http://www.jkforest.gov.in/wplans/LIDDER_WP_PART2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most of the forest area considered in this variable is naturally occuring, including </t>
+  </si>
+  <si>
+    <t>evergreen and dense forests. These don't have standard felling practices</t>
+  </si>
+  <si>
+    <t>Hence, we use the long cycle length of 40 years in the US source</t>
+  </si>
+  <si>
+    <t>India Felling Cycle Lengths in Agro-Forestry/Forest Plantations</t>
+  </si>
+  <si>
+    <t>The felling cycles in 'agro-forestry' models in India vary widely by species -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Bamboo (3-4 yrs), Eucalyptus (5 yrs), Teak (30 years), Deodar (30 yrs) - sources listed above</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -422,14 +485,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
-    <cellStyle name="Footnotes: top row" xfId="3"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="5"/>
-    <cellStyle name="Table title" xfId="6"/>
+    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -846,291 +909,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="66.7109375" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="88.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="13">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9"/>
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
       <c r="C9"/>
       <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="E9" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16"/>
-    </row>
     <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
       <c r="B18"/>
     </row>
     <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
       <c r="B19"/>
     </row>
     <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
       </c>
       <c r="B21"/>
     </row>
     <row r="22" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22"/>
     </row>
     <row r="23" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23"/>
     </row>
     <row r="24" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24"/>
     </row>
     <row r="25" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25"/>
     </row>
     <row r="26" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26"/>
     </row>
     <row r="27" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>25</v>
-      </c>
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>52</v>
+      <c r="A37" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>58</v>
+      <c r="A44" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>63</v>
+      <c r="A49" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>64</v>
+      <c r="A51" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
         <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
@@ -1138,7 +1280,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1147,33 +1289,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B3">
-        <v>692693</v>
+        <v>708273</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <f>B3*247.105</f>
-        <v>171167903.76499999</v>
+        <v>175017799.66499999</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,25 +1323,25 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B6">
-        <v>6944.9</v>
+        <v>7083</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B7" s="10">
         <f>B6*A15</f>
-        <v>25464.633333333331</v>
+        <v>25971</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1207,14 +1349,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <f>B7*B3</f>
-        <v>17639173257.566666</v>
+        <v>18394558083</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1256,7 +1398,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
@@ -1265,11 +1407,11 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>B9/B4</f>
-        <v>103.05187403465463</v>
+        <f>B7/B4</f>
+        <v>1.4839062112374205E-4</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1277,11 +1419,11 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
-        <f>A19*1000000</f>
-        <v>103051874.03465463</v>
+        <f>A19*10^12</f>
+        <v>148390621.12374204</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1294,7 +1436,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="8"/>
@@ -1306,7 +1448,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1324,7 +1466,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="7"/>
@@ -1334,7 +1476,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1346,7 +1488,7 @@
       </c>
       <c r="B28" s="17">
         <f>A20/A23</f>
-        <v>2576296.8508663657</v>
+        <v>3709765.5280935513</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1358,7 +1500,7 @@
       </c>
       <c r="B29" s="17">
         <f>B28</f>
-        <v>2576296.8508663657</v>
+        <v>3709765.5280935513</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1375,7 +1517,7 @@
       </c>
       <c r="B31" s="17">
         <f>B29</f>
-        <v>2576296.8508663657</v>
+        <v>3709765.5280935513</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1391,8 +1533,8 @@
         <v>8</v>
       </c>
       <c r="B33" s="17">
-        <f>B29/About!A53</f>
-        <v>1288148.4254331829</v>
+        <f>B29/About!A61</f>
+        <v>1854882.7640467756</v>
       </c>
     </row>
   </sheetData>
@@ -1402,13 +1544,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1444,7 +1588,7 @@
       </c>
       <c r="B2" s="3">
         <f>'India Data'!B28</f>
-        <v>2576296.8508663657</v>
+        <v>3709765.5280935513</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -1453,7 +1597,7 @@
       </c>
       <c r="B3" s="3">
         <f>'India Data'!B29</f>
-        <v>2576296.8508663657</v>
+        <v>3709765.5280935513</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1502,7 +1646,7 @@
       </c>
       <c r="B5" s="3">
         <f>'India Data'!B31</f>
-        <v>2576296.8508663657</v>
+        <v>3709765.5280935513</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1582,7 +1726,7 @@
       </c>
       <c r="B7" s="3">
         <f>'India Data'!B33</f>
-        <v>1288148.4254331829</v>
+        <v>1854882.7640467756</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
